--- a/data/trans_orig/P42-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P42-Habitat-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>509136</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>487253</v>
+        <v>485763</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>530394</v>
+        <v>532340</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7465189481389254</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7144322799097985</v>
+        <v>0.712248109518802</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7776874336028288</v>
+        <v>0.7805404390826924</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>172878</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>151620</v>
+        <v>149674</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>194761</v>
+        <v>196251</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2534810518610746</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2223125663971713</v>
+        <v>0.2194595609173073</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2855677200902015</v>
+        <v>0.2877518904811979</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>753919</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>727502</v>
+        <v>726440</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>779846</v>
+        <v>778198</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7805759941918847</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7532256756680492</v>
+        <v>0.7521261716142764</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8074200935917837</v>
+        <v>0.8057140482096298</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>211930</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>186003</v>
+        <v>187651</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>238347</v>
+        <v>239409</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2194240058081152</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1925799064082163</v>
+        <v>0.1942859517903703</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2467743243319507</v>
+        <v>0.2478738283857236</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>569315</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>548341</v>
+        <v>550614</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>586684</v>
+        <v>587327</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8325252198152202</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8018544086449629</v>
+        <v>0.8051779746067245</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8579244578773002</v>
+        <v>0.8588647627554534</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>114526</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>97157</v>
+        <v>96514</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>135500</v>
+        <v>133227</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1674747801847798</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1420755421226997</v>
+        <v>0.1411352372445468</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1981455913550367</v>
+        <v>0.1948220253932758</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>828986</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>802530</v>
+        <v>801983</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>851445</v>
+        <v>853807</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8029740565222842</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.777348143832118</v>
+        <v>0.7768192171131881</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8247287888977809</v>
+        <v>0.8270164345532852</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>203408</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>180949</v>
+        <v>178587</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>229864</v>
+        <v>230411</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1970259434777158</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1752712111022192</v>
+        <v>0.1729835654467149</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2226518561678821</v>
+        <v>0.223180782886812</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>2661356</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2612741</v>
+        <v>2611541</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2705696</v>
+        <v>2706598</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7911051909492635</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7766540691656978</v>
+        <v>0.776297344558097</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8042855927408341</v>
+        <v>0.8045536655509333</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>702743</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>658403</v>
+        <v>657501</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>751358</v>
+        <v>752558</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2088948090507366</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1957144072591661</v>
+        <v>0.1954463344490666</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2233459308343023</v>
+        <v>0.223702655441903</v>
       </c>
     </row>
     <row r="18">
@@ -1197,19 +1197,19 @@
         <v>594315</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>574621</v>
+        <v>575072</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>611952</v>
+        <v>612265</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8562019802218491</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8278288790075116</v>
+        <v>0.8284791843871345</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8816097073480724</v>
+        <v>0.8820615674967544</v>
       </c>
     </row>
     <row r="5">
@@ -1226,19 +1226,19 @@
         <v>99815</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>82178</v>
+        <v>81865</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>119509</v>
+        <v>119058</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1437980197781509</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.118390292651928</v>
+        <v>0.1179384325032456</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1721711209924889</v>
+        <v>0.1715208156128654</v>
       </c>
     </row>
     <row r="6">
@@ -1288,19 +1288,19 @@
         <v>870924</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>847172</v>
+        <v>847073</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>895057</v>
+        <v>895022</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8493355906001304</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8261719494703951</v>
+        <v>0.826075958913242</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8728707619525815</v>
+        <v>0.8728367279340354</v>
       </c>
     </row>
     <row r="8">
@@ -1317,19 +1317,19 @@
         <v>154494</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>130361</v>
+        <v>130396</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>178246</v>
+        <v>178345</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1506644093998695</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1271292380474185</v>
+        <v>0.1271632720659646</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1738280505296048</v>
+        <v>0.1739240410867579</v>
       </c>
     </row>
     <row r="9">
@@ -1379,19 +1379,19 @@
         <v>695469</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>676390</v>
+        <v>677463</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>710835</v>
+        <v>711974</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8997816767005902</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8750975839828516</v>
+        <v>0.8764860499024356</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9196610877624931</v>
+        <v>0.9211357825753289</v>
       </c>
     </row>
     <row r="11">
@@ -1408,19 +1408,19 @@
         <v>77462</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>62096</v>
+        <v>60957</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>96541</v>
+        <v>95468</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1002183232994098</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0803389122375069</v>
+        <v>0.07886421742467102</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1249024160171484</v>
+        <v>0.1235139500975643</v>
       </c>
     </row>
     <row r="12">
@@ -1470,19 +1470,19 @@
         <v>922492</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>900499</v>
+        <v>899212</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>942920</v>
+        <v>942196</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8830084211985237</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8619565916899741</v>
+        <v>0.8607245272959968</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9025620870983623</v>
+        <v>0.9018692903146383</v>
       </c>
     </row>
     <row r="14">
@@ -1499,19 +1499,19 @@
         <v>122223</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>101795</v>
+        <v>102519</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>144216</v>
+        <v>145503</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1169915788014762</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09743791290163768</v>
+        <v>0.09813070968536169</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1380434083100264</v>
+        <v>0.1392754727040032</v>
       </c>
     </row>
     <row r="15">
@@ -1561,19 +1561,19 @@
         <v>3083200</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3040766</v>
+        <v>3043862</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3119794</v>
+        <v>3127305</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8716515876878613</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.859655061657092</v>
+        <v>0.8605303238458164</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.88199700183296</v>
+        <v>0.8841206173831254</v>
       </c>
     </row>
     <row r="17">
@@ -1590,19 +1590,19 @@
         <v>453993</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>417399</v>
+        <v>409888</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>496427</v>
+        <v>493331</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1283484123121387</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.11800299816704</v>
+        <v>0.1158793826168747</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.140344938342908</v>
+        <v>0.1394696761541836</v>
       </c>
     </row>
     <row r="18">
@@ -1770,19 +1770,19 @@
         <v>553405</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>533163</v>
+        <v>531372</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>572387</v>
+        <v>571714</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8264992858697441</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.796267664133673</v>
+        <v>0.7935941225728276</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8548484301713659</v>
+        <v>0.8538441521304587</v>
       </c>
     </row>
     <row r="5">
@@ -1799,19 +1799,19 @@
         <v>116172</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>97190</v>
+        <v>97863</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>136414</v>
+        <v>138205</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1735007141302559</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1451515698286337</v>
+        <v>0.1461558478695417</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.203732335866327</v>
+        <v>0.2064058774271731</v>
       </c>
     </row>
     <row r="6">
@@ -1861,19 +1861,19 @@
         <v>913510</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>892329</v>
+        <v>892504</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>935079</v>
+        <v>932442</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8837770485822453</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8632858097882721</v>
+        <v>0.863455018356928</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9046438037016291</v>
+        <v>0.9020928056514285</v>
       </c>
     </row>
     <row r="8">
@@ -1890,19 +1890,19 @@
         <v>120133</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>98564</v>
+        <v>101201</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>141314</v>
+        <v>141139</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1162229514177547</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09535619629837079</v>
+        <v>0.09790719434857151</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1367141902117277</v>
+        <v>0.136544981643072</v>
       </c>
     </row>
     <row r="9">
@@ -1952,19 +1952,19 @@
         <v>676852</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>654318</v>
+        <v>655599</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>695320</v>
+        <v>695800</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8692450939947968</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8403061498475012</v>
+        <v>0.8419518488349176</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8929635551900715</v>
+        <v>0.8935799168950664</v>
       </c>
     </row>
     <row r="11">
@@ -1981,19 +1981,19 @@
         <v>101814</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>83346</v>
+        <v>82866</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>124348</v>
+        <v>123067</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1307549060052032</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1070364448099285</v>
+        <v>0.1064200831049342</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1596938501524988</v>
+        <v>0.1580481511650831</v>
       </c>
     </row>
     <row r="12">
@@ -2043,19 +2043,19 @@
         <v>922787</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>902380</v>
+        <v>902099</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>941822</v>
+        <v>942273</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8914021754255915</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8716894867992282</v>
+        <v>0.8714184176099214</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.909789879974233</v>
+        <v>0.9102259215049083</v>
       </c>
     </row>
     <row r="14">
@@ -2072,19 +2072,19 @@
         <v>112421</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>93386</v>
+        <v>92935</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>132828</v>
+        <v>133109</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1085978245744085</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09021012002576692</v>
+        <v>0.08977407849509175</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1283105132007719</v>
+        <v>0.1285815823900786</v>
       </c>
     </row>
     <row r="15">
@@ -2134,19 +2134,19 @@
         <v>3066554</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3025581</v>
+        <v>3026751</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3108029</v>
+        <v>3104433</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8718996815257611</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.860250027344613</v>
+        <v>0.8605827847695359</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8836921828125953</v>
+        <v>0.882669712676635</v>
       </c>
     </row>
     <row r="17">
@@ -2163,19 +2163,19 @@
         <v>450541</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>409066</v>
+        <v>412662</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>491514</v>
+        <v>490344</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1281003184742389</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1163078171874047</v>
+        <v>0.1173302873233651</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1397499726553872</v>
+        <v>0.1394172152304642</v>
       </c>
     </row>
     <row r="18">
@@ -2343,19 +2343,19 @@
         <v>442874</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>425277</v>
+        <v>423743</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>459568</v>
+        <v>459096</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8078414095856745</v>
+        <v>0.8078414095856746</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7757432246515884</v>
+        <v>0.7729439476442852</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.838293463421389</v>
+        <v>0.8374323918821807</v>
       </c>
     </row>
     <row r="5">
@@ -2372,19 +2372,19 @@
         <v>105345</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>88651</v>
+        <v>89123</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>122942</v>
+        <v>124476</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1921585904143254</v>
+        <v>0.1921585904143255</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1617065365786111</v>
+        <v>0.1625676081178192</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2242567753484114</v>
+        <v>0.2270560523557147</v>
       </c>
     </row>
     <row r="6">
@@ -2434,19 +2434,19 @@
         <v>693959</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>670917</v>
+        <v>671783</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>712829</v>
+        <v>714053</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8453678047233275</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8172985378961305</v>
+        <v>0.8183538761775284</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.868354299858578</v>
+        <v>0.8698462747242065</v>
       </c>
     </row>
     <row r="8">
@@ -2463,19 +2463,19 @@
         <v>126937</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>108067</v>
+        <v>106843</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>149979</v>
+        <v>149113</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1546321952766724</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1316457001414219</v>
+        <v>0.1301537252757934</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1827014621038693</v>
+        <v>0.1816461238224715</v>
       </c>
     </row>
     <row r="9">
@@ -2525,19 +2525,19 @@
         <v>508954</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>487367</v>
+        <v>491159</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>524419</v>
+        <v>525626</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8880504813298022</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8503831892803253</v>
+        <v>0.8570009674065872</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9150346881599725</v>
+        <v>0.9171405344184544</v>
       </c>
     </row>
     <row r="11">
@@ -2554,19 +2554,19 @@
         <v>64160</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>48695</v>
+        <v>47488</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>85747</v>
+        <v>81955</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1119495186701978</v>
+        <v>0.1119495186701979</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08496531184002749</v>
+        <v>0.08285946558154567</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1496168107196746</v>
+        <v>0.1429990325934128</v>
       </c>
     </row>
     <row r="12">
@@ -2616,19 +2616,19 @@
         <v>697987</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>670839</v>
+        <v>672007</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>719313</v>
+        <v>719078</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.8139361816516122</v>
+        <v>0.8139361816516121</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7822781032195801</v>
+        <v>0.7836407976851965</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8388053142441487</v>
+        <v>0.8385309330578777</v>
       </c>
     </row>
     <row r="14">
@@ -2645,19 +2645,19 @@
         <v>159558</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>138232</v>
+        <v>138467</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>186706</v>
+        <v>185538</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1860638183483878</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1611946857558511</v>
+        <v>0.1614690669421222</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2177218967804198</v>
+        <v>0.2163592023148036</v>
       </c>
     </row>
     <row r="15">
@@ -2707,19 +2707,19 @@
         <v>2343774</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2301244</v>
+        <v>2304758</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2385982</v>
+        <v>2384225</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8371297599678441</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8219393620610372</v>
+        <v>0.8231943605109457</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8522053137540831</v>
+        <v>0.8515774909226135</v>
       </c>
     </row>
     <row r="17">
@@ -2736,19 +2736,19 @@
         <v>456000</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>413792</v>
+        <v>415549</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>498530</v>
+        <v>495016</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1628702400321558</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1477946862459167</v>
+        <v>0.1484225090773863</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1780606379389628</v>
+        <v>0.1768056394890542</v>
       </c>
     </row>
     <row r="18">
